--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_density.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_density.xlsx
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +815,7 @@
         <v>89</v>
       </c>
       <c r="B2">
-        <v>0.5167958656330749</v>
+        <v>0.5778748180494906</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -823,7 +823,7 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>0.5610859728506787</v>
+        <v>0.6455026455026455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -831,7 +831,7 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>0.5092838196286472</v>
+        <v>0.5737211634904714</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -839,7 +839,7 @@
         <v>92</v>
       </c>
       <c r="B5">
-        <v>0.5222929936305732</v>
+        <v>0.5774647887323944</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -847,7 +847,7 @@
         <v>93</v>
       </c>
       <c r="B6">
-        <v>0.5080213903743316</v>
+        <v>0.5792682926829268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -855,7 +855,7 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <v>0.5228365384615384</v>
+        <v>0.638235294117647</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -863,7 +863,7 @@
         <v>95</v>
       </c>
       <c r="B8">
-        <v>0.5376344086021505</v>
+        <v>0.5791505791505791</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -871,7 +871,7 @@
         <v>96</v>
       </c>
       <c r="B9">
-        <v>0.5045161290322581</v>
+        <v>0.5522598870056498</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -879,7 +879,7 @@
         <v>97</v>
       </c>
       <c r="B10">
-        <v>0.5016722408026756</v>
+        <v>0.5603985056039851</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -887,7 +887,7 @@
         <v>98</v>
       </c>
       <c r="B11">
-        <v>0.4980237154150198</v>
+        <v>0.5560816809707014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -895,7 +895,7 @@
         <v>99</v>
       </c>
       <c r="B12">
-        <v>0.5720164609053497</v>
+        <v>0.6289592760180995</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -903,7 +903,7 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <v>0.5938461538461538</v>
+        <v>0.6713286713286714</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -911,7 +911,7 @@
         <v>101</v>
       </c>
       <c r="B14">
-        <v>0.5054054054054054</v>
+        <v>0.5574425574425574</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -919,7 +919,7 @@
         <v>102</v>
       </c>
       <c r="B15">
-        <v>0.476</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -927,7 +927,7 @@
         <v>103</v>
       </c>
       <c r="B16">
-        <v>0.5393759286775631</v>
+        <v>0.6060100166944908</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -935,7 +935,7 @@
         <v>104</v>
       </c>
       <c r="B17">
-        <v>0.4924953095684803</v>
+        <v>0.5362840967575914</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -943,7 +943,7 @@
         <v>105</v>
       </c>
       <c r="B18">
-        <v>0.6059113300492611</v>
+        <v>0.6759776536312849</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -951,7 +951,7 @@
         <v>106</v>
       </c>
       <c r="B19">
-        <v>0.4718498659517426</v>
+        <v>0.5225225225225225</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1000,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>0.4911764705882353</v>
+        <v>0.5369774919614148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>108</v>
       </c>
       <c r="B3">
-        <v>0.5204778156996587</v>
+        <v>0.5976331360946746</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>109</v>
       </c>
       <c r="B4">
-        <v>0.5412262156448203</v>
+        <v>0.5902777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>110</v>
       </c>
       <c r="B5">
-        <v>0.5744125326370757</v>
+        <v>0.6528189910979229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>111</v>
       </c>
       <c r="B6">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>112</v>
       </c>
       <c r="B7">
-        <v>0.5649122807017544</v>
+        <v>0.6106870229007634</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>113</v>
       </c>
       <c r="B8">
-        <v>0.5284552845528455</v>
+        <v>0.5735294117647058</v>
       </c>
     </row>
   </sheetData>
@@ -1110,22 +1110,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="E2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="F2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="G2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="H2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="I2">
-        <v>0.472972972972973</v>
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1136,25 +1136,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.4931958597907034</v>
+        <v>0.5805219722455845</v>
       </c>
       <c r="D3">
-        <v>0.01188163446071799</v>
+        <v>0.05535608332743509</v>
       </c>
       <c r="E3">
-        <v>0.4847942754919499</v>
+        <v>0.5413793103448276</v>
       </c>
       <c r="F3">
-        <v>0.4889950676413267</v>
+        <v>0.560950641295206</v>
       </c>
       <c r="G3">
-        <v>0.4931958597907034</v>
+        <v>0.5805219722455845</v>
       </c>
       <c r="H3">
-        <v>0.4973966519400801</v>
+        <v>0.600093303195963</v>
       </c>
       <c r="I3">
-        <v>0.5015974440894568</v>
+        <v>0.6196646341463414</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1165,25 +1165,25 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.4863195505687713</v>
+        <v>0.5626498750453641</v>
       </c>
       <c r="D4">
-        <v>0.02071265275128712</v>
+        <v>0.02438254982367393</v>
       </c>
       <c r="E4">
-        <v>0.4564755838641189</v>
+        <v>0.5392405063291139</v>
       </c>
       <c r="F4">
-        <v>0.4847161572052402</v>
+        <v>0.5436123348017621</v>
       </c>
       <c r="G4">
-        <v>0.4864864864864865</v>
+        <v>0.5568627450980392</v>
       </c>
       <c r="H4">
-        <v>0.4890453834115806</v>
+        <v>0.5751295336787565</v>
       </c>
       <c r="I4">
-        <v>0.5148741418764302</v>
+        <v>0.598404255319149</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1194,25 +1194,25 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.5283158960499166</v>
+        <v>0.601387300660593</v>
       </c>
       <c r="D5">
-        <v>0.032572831332109</v>
+        <v>0.03192358300298791</v>
       </c>
       <c r="E5">
-        <v>0.4743589743589743</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="F5">
-        <v>0.5166142832198358</v>
+        <v>0.5851210585585586</v>
       </c>
       <c r="G5">
-        <v>0.5373170394918531</v>
+        <v>0.5979215456674474</v>
       </c>
       <c r="H5">
-        <v>0.5458430458430459</v>
+        <v>0.6339553899210146</v>
       </c>
       <c r="I5">
-        <v>0.571753986332574</v>
+        <v>0.6352040816326531</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1223,25 +1223,25 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>0.5082623595876877</v>
+        <v>0.5763733068165444</v>
       </c>
       <c r="D6">
-        <v>0.02878192249627609</v>
+        <v>0.03275988020031743</v>
       </c>
       <c r="E6">
-        <v>0.4539385847797063</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="F6">
-        <v>0.4910394265232975</v>
+        <v>0.548689138576779</v>
       </c>
       <c r="G6">
-        <v>0.5106382978723404</v>
+        <v>0.581888246628131</v>
       </c>
       <c r="H6">
-        <v>0.5241935483870968</v>
+        <v>0.6</v>
       </c>
       <c r="I6">
-        <v>0.5655737704918032</v>
+        <v>0.6310975609756098</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1252,25 +1252,25 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.4966079032869028</v>
+        <v>0.5725500809552712</v>
       </c>
       <c r="D7">
-        <v>0.03857793395286484</v>
+        <v>0.03662582509557887</v>
       </c>
       <c r="E7">
-        <v>0.427906976744186</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="F7">
-        <v>0.4680511552195475</v>
+        <v>0.5589953729119286</v>
       </c>
       <c r="G7">
-        <v>0.5098527536484616</v>
+        <v>0.5860211183105352</v>
       </c>
       <c r="H7">
-        <v>0.5212393803098451</v>
+        <v>0.5963979416809606</v>
       </c>
       <c r="I7">
-        <v>0.5491990846681922</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0.5172267210669592</v>
+        <v>0.5877311961037741</v>
       </c>
       <c r="D8">
-        <v>0.04113443143845123</v>
+        <v>0.04416058292491767</v>
       </c>
       <c r="E8">
-        <v>0.4188034188034188</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F8">
-        <v>0.4904534606205251</v>
+        <v>0.5706293706293706</v>
       </c>
       <c r="G8">
-        <v>0.5189504373177842</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="H8">
-        <v>0.54421768707483</v>
+        <v>0.6104417670682731</v>
       </c>
       <c r="I8">
-        <v>0.5801526717557252</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.4998575181205599</v>
+        <v>0.584730975023144</v>
       </c>
       <c r="D9">
-        <v>0.0288130609105505</v>
+        <v>0.02937378346141926</v>
       </c>
       <c r="E9">
-        <v>0.4689655172413793</v>
+        <v>0.5420289855072464</v>
       </c>
       <c r="F9">
-        <v>0.4759769010090963</v>
+        <v>0.5654020797033046</v>
       </c>
       <c r="G9">
-        <v>0.4935897435897436</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H9">
-        <v>0.5167907361455748</v>
+        <v>0.590436779020594</v>
       </c>
       <c r="I9">
-        <v>0.5490196078431373</v>
+        <v>0.6461538461538462</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1339,25 +1339,25 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.5179197090087533</v>
+        <v>0.5967717868722436</v>
       </c>
       <c r="D10">
-        <v>0.0347315576635265</v>
+        <v>0.03795576471066398</v>
       </c>
       <c r="E10">
-        <v>0.4657534246575342</v>
+        <v>0.5340314136125655</v>
       </c>
       <c r="F10">
-        <v>0.4907116204690832</v>
+        <v>0.5692375109553023</v>
       </c>
       <c r="G10">
-        <v>0.5173211521636718</v>
+        <v>0.5948114385614385</v>
       </c>
       <c r="H10">
-        <v>0.5359617516629712</v>
+        <v>0.6185254803675857</v>
       </c>
       <c r="I10">
-        <v>0.5919732441471572</v>
+        <v>0.6796875</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1368,25 +1368,25 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.5243924182686057</v>
+        <v>0.5881594192486612</v>
       </c>
       <c r="D11">
-        <v>0.03767613762239568</v>
+        <v>0.04576804757057853</v>
       </c>
       <c r="E11">
-        <v>0.4718498659517426</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="F11">
-        <v>0.5023832128600711</v>
+        <v>0.5564219000886654</v>
       </c>
       <c r="G11">
-        <v>0.5130398426308611</v>
+        <v>0.5776698033909424</v>
       </c>
       <c r="H11">
-        <v>0.53894054865871</v>
+        <v>0.6232219611871974</v>
       </c>
       <c r="I11">
-        <v>0.6059113300492611</v>
+        <v>0.6759776536312849</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1397,25 +1397,25 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>0.5417270244647087</v>
+        <v>0.5981319759424656</v>
       </c>
       <c r="D12">
-        <v>0.03074453258556991</v>
+        <v>0.03714225781282877</v>
       </c>
       <c r="E12">
-        <v>0.4911764705882353</v>
+        <v>0.5369774919614148</v>
       </c>
       <c r="F12">
-        <v>0.5244665501262521</v>
+        <v>0.5819035947712419</v>
       </c>
       <c r="G12">
-        <v>0.5412262156448203</v>
+        <v>0.5976331360946746</v>
       </c>
       <c r="H12">
-        <v>0.5681704260651629</v>
+        <v>0.6178435114503817</v>
       </c>
       <c r="I12">
-        <v>0.5744125326370757</v>
+        <v>0.6528189910979229</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.4847942754919499</v>
+        <v>0.6196646341463414</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5015974440894568</v>
+        <v>0.5413793103448276</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.4864864864864865</v>
+        <v>0.5568627450980392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.4564755838641189</v>
+        <v>0.5392405063291139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.4890453834115806</v>
+        <v>0.5436123348017621</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.4847161572052402</v>
+        <v>0.5751295336787565</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.5148741418764302</v>
+        <v>0.598404255319149</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.5265700483091788</v>
+        <v>0.5891891891891892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5305164319248826</v>
+        <v>0.6348314606741573</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1569,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.571753986332574</v>
+        <v>0.6352040816326531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1577,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4867469879518072</v>
+        <v>0.5494505494505495</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1585,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5470085470085471</v>
+        <v>0.6336633663366337</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1593,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.5441176470588235</v>
+        <v>0.6065573770491803</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1601,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.4743589743589743</v>
+        <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1609,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5454545454545454</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.5655737704918032</v>
+        <v>0.6310975609756098</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.4910394265232975</v>
+        <v>0.531496062992126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.4891566265060241</v>
+        <v>0.5272727272727272</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>0.5213675213675214</v>
+        <v>0.6135593220338983</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>0.5382165605095541</v>
+        <v>0.5847750865051903</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>0.4539385847797063</v>
+        <v>0.5337519623233909</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>0.5079365079365079</v>
+        <v>0.5986696230598669</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>0.4758909853249476</v>
+        <v>0.5577395577395577</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0.4625322997416021</v>
+        <v>0.5295857988165681</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>0.5157894736842106</v>
+        <v>0.5764705882352941</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>0.4975369458128079</v>
+        <v>0.581888246628131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>0.5252365930599369</v>
+        <v>0.6043557168784029</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>0.5222929936305732</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>0.4974533106960951</v>
+        <v>0.548689138576779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>0.5241935483870968</v>
+        <v>0.5752212389380531</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>0.5106382978723404</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>0.5217391304347826</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0.4462616822429907</v>
+        <v>0.4986945169712794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>0.5182341650671785</v>
+        <v>0.5831533477321814</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>0.4700513405590416</v>
+        <v>0.5933429811866859</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>0.5426997245179064</v>
+        <v>0.593939393939394</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.5210727969348659</v>
+        <v>0.5720524017467249</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>0.5125284738041003</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>0.5491990846681922</v>
+        <v>0.6050632911392405</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>0.4620505992010652</v>
+        <v>0.5530546623794212</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.5071770334928229</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>0.4803738317757009</v>
+        <v>0.5609756097560976</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>46</v>
       </c>
       <c r="B13">
-        <v>0.427906976744186</v>
+        <v>0.5082872928176796</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1955,7 @@
         <v>47</v>
       </c>
       <c r="B2">
-        <v>0.4752851711026616</v>
+        <v>0.589622641509434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>48</v>
       </c>
       <c r="B3">
-        <v>0.562962962962963</v>
+        <v>0.6104417670682731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>49</v>
       </c>
       <c r="B4">
-        <v>0.4904534606205251</v>
+        <v>0.5706293706293706</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>0.5801526717557252</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>0.5296442687747036</v>
+        <v>0.6090909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <v>0.5517241379310345</v>
+        <v>0.6291390728476821</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>53</v>
       </c>
       <c r="B8">
-        <v>0.5426356589147286</v>
+        <v>0.6008583690987125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>54</v>
       </c>
       <c r="B9">
-        <v>0.54421768707483</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>55</v>
       </c>
       <c r="B10">
-        <v>0.5288753799392097</v>
+        <v>0.5979381443298969</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>56</v>
       </c>
       <c r="B11">
-        <v>0.5708245243128964</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>57</v>
       </c>
       <c r="B12">
-        <v>0.5030674846625767</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>58</v>
       </c>
       <c r="B13">
-        <v>0.4807692307692308</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>59</v>
       </c>
       <c r="B14">
-        <v>0.5142857142857142</v>
+        <v>0.6180257510729614</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>60</v>
       </c>
       <c r="B15">
-        <v>0.5189504373177842</v>
+        <v>0.5779220779220779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>61</v>
       </c>
       <c r="B16">
-        <v>0.4977973568281938</v>
+        <v>0.553921568627451</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>62</v>
       </c>
       <c r="B17">
-        <v>0.4824046920821115</v>
+        <v>0.5557432432432432</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>63</v>
       </c>
       <c r="B18">
-        <v>0.4188034188034188</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2131,7 +2131,7 @@
         <v>64</v>
       </c>
       <c r="B2">
-        <v>0.4935897435897436</v>
+        <v>0.5645756457564576</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>0.4689655172413793</v>
+        <v>0.5854978354978355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>0.4983606557377049</v>
+        <v>0.5747126436781609</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <v>0.5053763440860215</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>68</v>
       </c>
       <c r="B6">
-        <v>0.4801762114537445</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <v>0.5490196078431373</v>
+        <v>0.6461538461538462</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <v>0.5282051282051282</v>
+        <v>0.5953757225433526</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>71</v>
       </c>
       <c r="B9">
-        <v>0.5428571428571428</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>72</v>
       </c>
       <c r="B10">
-        <v>0.4717775905644482</v>
+        <v>0.5662285136501517</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>73</v>
       </c>
       <c r="B11">
-        <v>0.4911392405063291</v>
+        <v>0.5420289855072464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>0.4689655172413793</v>
+        <v>0.5854978354978355</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2253,7 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>0.5622119815668203</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>0.5365853658536586</v>
+        <v>0.6043956043956044</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>0.5228426395939086</v>
+        <v>0.5852272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>0.5340909090909091</v>
+        <v>0.6133333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>0.4873563218390805</v>
+        <v>0.6169590643274854</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>80</v>
       </c>
       <c r="B7">
-        <v>0.5919732441471572</v>
+        <v>0.6796875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>0.49800796812749</v>
+        <v>0.5642201834862385</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>0.4888059701492538</v>
+        <v>0.5632183908045977</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>83</v>
       </c>
       <c r="B10">
-        <v>0.4964285714285714</v>
+        <v>0.5685071574642127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0.5494186046511628</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>85</v>
       </c>
       <c r="B12">
-        <v>0.4657534246575342</v>
+        <v>0.5340314136125655</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="B13">
-        <v>0.5196850393700787</v>
+        <v>0.6226415094339622</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>87</v>
       </c>
       <c r="B14">
-        <v>0.4827586206896552</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>88</v>
       </c>
       <c r="B15">
-        <v>0.5149572649572649</v>
+        <v>0.5738095238095238</v>
       </c>
     </row>
   </sheetData>

--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_density.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_density.xlsx
@@ -7,25 +7,24 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="1" r:id="rId1"/>
-    <sheet name="2008" sheetId="2" r:id="rId2"/>
-    <sheet name="2009" sheetId="3" r:id="rId3"/>
-    <sheet name="2010" sheetId="4" r:id="rId4"/>
-    <sheet name="2011" sheetId="5" r:id="rId5"/>
-    <sheet name="2012" sheetId="6" r:id="rId6"/>
-    <sheet name="2013" sheetId="7" r:id="rId7"/>
-    <sheet name="2014" sheetId="8" r:id="rId8"/>
-    <sheet name="2016" sheetId="9" r:id="rId9"/>
-    <sheet name="2017" sheetId="10" r:id="rId10"/>
-    <sheet name="2018" sheetId="11" r:id="rId11"/>
-    <sheet name="Summary" sheetId="12" r:id="rId12"/>
+    <sheet name="2009" sheetId="1" r:id="rId1"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
+    <sheet name="2011" sheetId="3" r:id="rId3"/>
+    <sheet name="2012" sheetId="4" r:id="rId4"/>
+    <sheet name="2013" sheetId="5" r:id="rId5"/>
+    <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="7" r:id="rId7"/>
+    <sheet name="2016" sheetId="8" r:id="rId8"/>
+    <sheet name="2017" sheetId="9" r:id="rId9"/>
+    <sheet name="2018" sheetId="10" r:id="rId10"/>
+    <sheet name="Summary" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -33,15 +32,6 @@
     <t>lexical_density</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2007/aug/30/john-mccain/mccain-picks-and-chooses-in-attack-on-clinton/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2008/jun/17/republican-national-committee-republican/no-proof-rezko-saved-obama-money-on-home/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2009/jan/13/people-american-way/seeing-red-over-warren/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2009/apr/01/michele-bachmann/defending-dollar-bachmann-distorts-geithners-comme/</t>
   </si>
   <si>
@@ -250,6 +240,27 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jun/16/democratic-congressional-campaign-committee/democratic-group-says-rep-sean-duffy-voted-against/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/28/constitutional-rights-pac/paul-ryan-one-few-gop-vote-force-christian-employe/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/13/lynn-westmoreland/Westmoreland-ran-doesnt-have-to-prove-nuclear-plan/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/may/03/robert-hurt/hurt-amiss-linking-estate-tax-small-farm-businesse/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/apr/13/dave-brat/brat-says-obamacare-repeal-would-save-nation-2-tri/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/10/state-democratic-party-wisconsin/democratic-party-says-scott-walker-proposed-sellin/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/23/john-cornyn/cornyn-says-keystone-pipeline-through-texas-create/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/18/bobby-scott/bobby-scott-low-gas-prices-are-result-obama-polici/</t>
   </si>
   <si>
     <t>http://www.politifact.com/california/statements/2016/aug/05/dianne-feinstein/feinsteins-claim-about-prime-time-marijuana-tv-ads/</t>
@@ -764,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,12 +794,48 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5476190476190477</v>
+        <v>0.5568627450980392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.5392405063291139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.5436123348017621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.5751295336787565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.598404255319149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,7 +843,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,146 +859,651 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B2">
-        <v>0.5778748180494906</v>
+        <v>0.5369774919614148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <v>0.6455026455026455</v>
+        <v>0.5976331360946746</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B4">
-        <v>0.5737211634904714</v>
+        <v>0.5902777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>0.5774647887323944</v>
+        <v>0.6528189910979229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>0.5792682926829268</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>0.638235294117647</v>
+        <v>0.6106870229007634</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <v>0.5791505791505791</v>
+        <v>0.5735294117647058</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.5626498750453641</v>
+      </c>
+      <c r="D2">
+        <v>0.02438254982367393</v>
+      </c>
+      <c r="E2">
+        <v>0.5392405063291139</v>
+      </c>
+      <c r="F2">
+        <v>0.5436123348017621</v>
+      </c>
+      <c r="G2">
+        <v>0.5568627450980392</v>
+      </c>
+      <c r="H2">
+        <v>0.5751295336787565</v>
+      </c>
+      <c r="I2">
+        <v>0.598404255319149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.601387300660593</v>
+      </c>
+      <c r="D3">
+        <v>0.03192358300298791</v>
+      </c>
+      <c r="E3">
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="F3">
+        <v>0.5851210585585586</v>
+      </c>
+      <c r="G3">
+        <v>0.5979215456674474</v>
+      </c>
+      <c r="H3">
+        <v>0.6339553899210146</v>
+      </c>
+      <c r="I3">
+        <v>0.6352040816326531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.5763733068165444</v>
+      </c>
+      <c r="D4">
+        <v>0.03275988020031743</v>
+      </c>
+      <c r="E4">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="F4">
+        <v>0.548689138576779</v>
+      </c>
+      <c r="G4">
+        <v>0.581888246628131</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <v>0.6310975609756098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.5725500809552712</v>
+      </c>
+      <c r="D5">
+        <v>0.03662582509557887</v>
+      </c>
+      <c r="E5">
+        <v>0.4986945169712794</v>
+      </c>
+      <c r="F5">
+        <v>0.5589953729119286</v>
+      </c>
+      <c r="G5">
+        <v>0.5860211183105352</v>
+      </c>
+      <c r="H5">
+        <v>0.5963979416809606</v>
+      </c>
+      <c r="I5">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.5877311961037741</v>
+      </c>
+      <c r="D6">
+        <v>0.04416058292491767</v>
+      </c>
+      <c r="E6">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="F6">
+        <v>0.5706293706293706</v>
+      </c>
+      <c r="G6">
+        <v>0.5979381443298969</v>
+      </c>
+      <c r="H6">
+        <v>0.6104417670682731</v>
+      </c>
+      <c r="I6">
+        <v>0.6551724137931034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.584730975023144</v>
+      </c>
+      <c r="D7">
+        <v>0.02937378346141926</v>
+      </c>
+      <c r="E7">
+        <v>0.5420289855072464</v>
+      </c>
+      <c r="F7">
+        <v>0.5654020797033046</v>
+      </c>
+      <c r="G7">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.590436779020594</v>
+      </c>
+      <c r="I7">
+        <v>0.6461538461538462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.5735911754258582</v>
+      </c>
+      <c r="D8">
+        <v>0.04201435067722763</v>
+      </c>
+      <c r="E8">
+        <v>0.5115384615384615</v>
+      </c>
+      <c r="F8">
+        <v>0.5506673619306383</v>
+      </c>
+      <c r="G8">
+        <v>0.5721925133689839</v>
+      </c>
+      <c r="H8">
+        <v>0.5964743916964438</v>
+      </c>
+      <c r="I8">
+        <v>0.637123745819398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.5967717868722436</v>
+      </c>
+      <c r="D9">
+        <v>0.03795576471066398</v>
+      </c>
+      <c r="E9">
+        <v>0.5340314136125655</v>
+      </c>
+      <c r="F9">
+        <v>0.5692375109553023</v>
+      </c>
+      <c r="G9">
+        <v>0.5948114385614385</v>
+      </c>
+      <c r="H9">
+        <v>0.6185254803675857</v>
+      </c>
+      <c r="I9">
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.5881594192486612</v>
+      </c>
+      <c r="D10">
+        <v>0.04576804757057853</v>
+      </c>
+      <c r="E10">
+        <v>0.5225225225225225</v>
+      </c>
+      <c r="F10">
+        <v>0.5564219000886654</v>
+      </c>
+      <c r="G10">
+        <v>0.5776698033909424</v>
+      </c>
+      <c r="H10">
+        <v>0.6232219611871974</v>
+      </c>
+      <c r="I10">
+        <v>0.6759776536312849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.5981319759424656</v>
+      </c>
+      <c r="D11">
+        <v>0.03714225781282877</v>
+      </c>
+      <c r="E11">
+        <v>0.5369774919614148</v>
+      </c>
+      <c r="F11">
+        <v>0.5819035947712419</v>
+      </c>
+      <c r="G11">
+        <v>0.5976331360946746</v>
+      </c>
+      <c r="H11">
+        <v>0.6178435114503817</v>
+      </c>
+      <c r="I11">
+        <v>0.6528189910979229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.5891891891891892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.6348314606741573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.6352040816326531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.5494505494505495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.6336633663366337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.6065573770491803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5522598870056498</v>
+        <v>0.5892857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.6310975609756098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.531496062992126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.5272727272727272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.6135593220338983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0.5847750865051903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.5337519623233909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.5986696230598669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.5577395577395577</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0.5603985056039851</v>
+        <v>0.5295857988165681</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0.5560816809707014</v>
+        <v>0.5764705882352941</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>0.6289592760180995</v>
+        <v>0.581888246628131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.6713286713286714</v>
+        <v>0.6043557168784029</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>0.5574425574425574</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>0.5483870967741935</v>
+        <v>0.548689138576779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>0.6060100166944908</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>0.5362840967575914</v>
+        <v>0.5752212389380531</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>0.6759776536312849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19">
-        <v>0.5225225225225225</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
   </sheetData>
@@ -973,15 +1525,14 @@
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -997,619 +1548,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0.5369774919614148</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>0.5976331360946746</v>
+        <v>0.4986945169712794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>0.5902777777777778</v>
+        <v>0.5831533477321814</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0.6528189910979229</v>
+        <v>0.5933429811866859</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>0.625</v>
+        <v>0.593939393939394</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0.6106870229007634</v>
+        <v>0.5720524017467249</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>0.5735294117647058</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="E2">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="F2">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="G2">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="H2">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="I2">
-        <v>0.5476190476190477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.5805219722455845</v>
-      </c>
-      <c r="D3">
-        <v>0.05535608332743509</v>
-      </c>
-      <c r="E3">
-        <v>0.5413793103448276</v>
-      </c>
-      <c r="F3">
-        <v>0.560950641295206</v>
-      </c>
-      <c r="G3">
-        <v>0.5805219722455845</v>
-      </c>
-      <c r="H3">
-        <v>0.600093303195963</v>
-      </c>
-      <c r="I3">
-        <v>0.6196646341463414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.5626498750453641</v>
-      </c>
-      <c r="D4">
-        <v>0.02438254982367393</v>
-      </c>
-      <c r="E4">
-        <v>0.5392405063291139</v>
-      </c>
-      <c r="F4">
-        <v>0.5436123348017621</v>
-      </c>
-      <c r="G4">
-        <v>0.5568627450980392</v>
-      </c>
-      <c r="H4">
-        <v>0.5751295336787565</v>
-      </c>
-      <c r="I4">
-        <v>0.598404255319149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0.601387300660593</v>
-      </c>
-      <c r="D5">
-        <v>0.03192358300298791</v>
-      </c>
-      <c r="E5">
-        <v>0.5494505494505495</v>
-      </c>
-      <c r="F5">
-        <v>0.5851210585585586</v>
-      </c>
-      <c r="G5">
-        <v>0.5979215456674474</v>
-      </c>
-      <c r="H5">
-        <v>0.6339553899210146</v>
-      </c>
-      <c r="I5">
-        <v>0.6352040816326531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.5763733068165444</v>
-      </c>
-      <c r="D6">
-        <v>0.03275988020031743</v>
-      </c>
-      <c r="E6">
-        <v>0.5272727272727272</v>
-      </c>
-      <c r="F6">
-        <v>0.548689138576779</v>
-      </c>
-      <c r="G6">
-        <v>0.581888246628131</v>
-      </c>
-      <c r="H6">
-        <v>0.6</v>
-      </c>
-      <c r="I6">
-        <v>0.6310975609756098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0.5725500809552712</v>
-      </c>
-      <c r="D7">
-        <v>0.03662582509557887</v>
-      </c>
-      <c r="E7">
-        <v>0.4986945169712794</v>
-      </c>
-      <c r="F7">
-        <v>0.5589953729119286</v>
-      </c>
-      <c r="G7">
-        <v>0.5860211183105352</v>
-      </c>
-      <c r="H7">
-        <v>0.5963979416809606</v>
-      </c>
-      <c r="I7">
-        <v>0.609375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0.5877311961037741</v>
-      </c>
-      <c r="D8">
-        <v>0.04416058292491767</v>
-      </c>
-      <c r="E8">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="F8">
-        <v>0.5706293706293706</v>
-      </c>
-      <c r="G8">
-        <v>0.5979381443298969</v>
-      </c>
-      <c r="H8">
-        <v>0.6104417670682731</v>
-      </c>
-      <c r="I8">
-        <v>0.6551724137931034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.584730975023144</v>
-      </c>
-      <c r="D9">
-        <v>0.02937378346141926</v>
-      </c>
-      <c r="E9">
-        <v>0.5420289855072464</v>
-      </c>
-      <c r="F9">
-        <v>0.5654020797033046</v>
-      </c>
-      <c r="G9">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.590436779020594</v>
-      </c>
-      <c r="I9">
-        <v>0.6461538461538462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.5967717868722436</v>
-      </c>
-      <c r="D10">
-        <v>0.03795576471066398</v>
-      </c>
-      <c r="E10">
-        <v>0.5340314136125655</v>
-      </c>
-      <c r="F10">
-        <v>0.5692375109553023</v>
-      </c>
-      <c r="G10">
-        <v>0.5948114385614385</v>
-      </c>
-      <c r="H10">
-        <v>0.6185254803675857</v>
-      </c>
-      <c r="I10">
-        <v>0.6796875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0.5881594192486612</v>
-      </c>
-      <c r="D11">
-        <v>0.04576804757057853</v>
-      </c>
-      <c r="E11">
-        <v>0.5225225225225225</v>
-      </c>
-      <c r="F11">
-        <v>0.5564219000886654</v>
-      </c>
-      <c r="G11">
-        <v>0.5776698033909424</v>
-      </c>
-      <c r="H11">
-        <v>0.6232219611871974</v>
-      </c>
-      <c r="I11">
-        <v>0.6759776536312849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0.5981319759424656</v>
-      </c>
-      <c r="D12">
-        <v>0.03714225781282877</v>
-      </c>
-      <c r="E12">
-        <v>0.5369774919614148</v>
-      </c>
-      <c r="F12">
-        <v>0.5819035947712419</v>
-      </c>
-      <c r="G12">
-        <v>0.5976331360946746</v>
-      </c>
-      <c r="H12">
-        <v>0.6178435114503817</v>
-      </c>
-      <c r="I12">
-        <v>0.6528189910979229</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.6196646341463414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.5413793103448276</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.5568627450980392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.5392405063291139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.5436123348017621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.5751295336787565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.598404255319149</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.5891891891891892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.6348314606741573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.6352040816326531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.5494505494505495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.6336633663366337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.6065573770491803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.5729166666666666</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0.5892857142857143</v>
+        <v>0.6050632911392405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.5530546623794212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0.5888888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0.5609756097560976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0.5082872928176796</v>
       </c>
     </row>
   </sheetData>
@@ -1622,6 +1652,10 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1645,138 +1679,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>0.6310975609756098</v>
+        <v>0.589622641509434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0.531496062992126</v>
+        <v>0.6104417670682731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>0.5272727272727272</v>
+        <v>0.5706293706293706</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>0.6135593220338983</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>0.5847750865051903</v>
+        <v>0.6090909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>0.5337519623233909</v>
+        <v>0.6291390728476821</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>0.5986696230598669</v>
+        <v>0.6008583690987125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>0.5577395577395577</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>0.5295857988165681</v>
+        <v>0.5979381443298969</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0.5764705882352941</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>0.581888246628131</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>0.6043557168784029</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.6180257510729614</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>0.548689138576779</v>
+        <v>0.5779220779220779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.553921568627451</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>0.5752212389380531</v>
+        <v>0.5557432432432432</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>0.6037735849056604</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,98 +1855,322 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>0.609375</v>
+        <v>0.5645756457564576</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>0.4986945169712794</v>
+        <v>0.5854978354978355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>0.5831533477321814</v>
+        <v>0.5747126436781609</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>0.5933429811866859</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>0.593939393939394</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>0.5720524017467249</v>
+        <v>0.6461538461538462</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>0.6037735849056604</v>
+        <v>0.5953757225433526</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>0.6050632911392405</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>0.5530546623794212</v>
+        <v>0.5662285136501517</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>0.5888888888888889</v>
+        <v>0.5420289855072464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B12">
-        <v>0.5609756097560976</v>
+        <v>0.5854978354978355</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>0.637123745819398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0.5115384615384615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0.5911111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.5671981776765376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>0.6018376722817764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>0.5341365461847389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0.5721925133689839</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>0.6382978723404256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>0.6043956043956044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>0.5852272727272727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>0.6133333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>0.6169590643274854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0.5642201834862385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>0.5632183908045977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>0.5685071574642127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>0.6190476190476191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>0.5340314136125655</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>0.5082872928176796</v>
+        <v>0.6226415094339622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>0.5738095238095238</v>
       </c>
     </row>
   </sheetData>
@@ -1929,14 +2187,16 @@
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,138 +2212,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>0.589622641509434</v>
+        <v>0.5778748180494906</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B3">
-        <v>0.6104417670682731</v>
+        <v>0.6455026455026455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>0.5706293706293706</v>
+        <v>0.5737211634904714</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>0.6551724137931034</v>
+        <v>0.5774647887323944</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>0.6090909090909091</v>
+        <v>0.5792682926829268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>0.6291390728476821</v>
+        <v>0.638235294117647</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B8">
-        <v>0.6008583690987125</v>
+        <v>0.5791505791505791</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>0.6060606060606061</v>
+        <v>0.5522598870056498</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B10">
-        <v>0.5979381443298969</v>
+        <v>0.5603985056039851</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>0.638095238095238</v>
+        <v>0.5560816809707014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>0.574468085106383</v>
+        <v>0.6289592760180995</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>0.5376344086021505</v>
+        <v>0.6713286713286714</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B14">
-        <v>0.6180257510729614</v>
+        <v>0.5574425574425574</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>0.5779220779220779</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B16">
-        <v>0.553921568627451</v>
+        <v>0.6060100166944908</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B17">
-        <v>0.5557432432432432</v>
+        <v>0.5362840967575914</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B18">
-        <v>0.4666666666666667</v>
+        <v>0.6759776536312849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>0.5225225225225225</v>
       </c>
     </row>
   </sheetData>
@@ -2105,277 +2373,7 @@
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>0.5645756457564576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>0.5854978354978355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>0.5747126436781609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>0.5636363636363636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>0.6461538461538462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>0.5953757225433526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>0.5662285136501517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>0.5420289855072464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>0.5854978354978355</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>0.6382978723404256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>0.6043956043956044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>0.5852272727272727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>0.6133333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <v>0.6169590643274854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>0.6796875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>0.5642201834862385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9">
-        <v>0.5632183908045977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10">
-        <v>0.5685071574642127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>0.6190476190476191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>0.5340314136125655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13">
-        <v>0.6226415094339622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15">
-        <v>0.5738095238095238</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
